--- a/public/Export/Exportar_Elqui_Pleito.xlsx
+++ b/public/Export/Exportar_Elqui_Pleito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A716A1-2B06-6147-AFA8-EDF09921E0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A1429-07A7-2141-BB68-D319B32ACF6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="1240" windowWidth="27820" windowHeight="17540" tabRatio="893" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18120" yWindow="1480" windowWidth="27820" windowHeight="17540" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujos" sheetId="15" r:id="rId1"/>
@@ -9170,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA575573-C4EC-0647-BC7C-565055FEA121}">
   <dimension ref="B2:R56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9265,11 +9265,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="171">
-        <f>IF(Utilidad!C18&gt;1,Utilidad!C1&gt;100,Utilidad!C1)</f>
+        <f>IF(Utilidad!C18&gt;1,Utilidad!C1/100,Utilidad!C1)</f>
         <v>0</v>
       </c>
       <c r="E4" s="171">
-        <f>IF(Utilidad!E18&gt;1,Utilidad!E1&gt;100,Utilidad!E1)</f>
+        <f>IF(Utilidad!E18&gt;1,Utilidad!E1/100,Utilidad!E1)</f>
         <v>0</v>
       </c>
       <c r="G4" s="164" t="s">
@@ -9280,11 +9280,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="171">
-        <f>IF(Utilidad!D18&gt;1,Utilidad!D1&gt;100,Utilidad!D1)</f>
+        <f>IF(Utilidad!D18&gt;1,Utilidad!D1/100,Utilidad!D1)</f>
         <v>0</v>
       </c>
       <c r="J4" s="171">
-        <f>IF(Utilidad!F18&gt;1,Utilidad!F1&gt;100,Utilidad!F1)</f>
+        <f>IF(Utilidad!F18&gt;1,Utilidad!F1/100,Utilidad!F1)</f>
         <v>0</v>
       </c>
       <c r="L4" s="172">
@@ -9321,11 +9321,11 @@
         <v>68993</v>
       </c>
       <c r="D5" s="171">
-        <f>IF(Utilidad!C19&gt;1,Utilidad!C2&gt;100,Utilidad!C2)</f>
+        <f>IF(Utilidad!C19&gt;1,Utilidad!C2/100,Utilidad!C2)</f>
         <v>0.53526569941878199</v>
       </c>
       <c r="E5" s="171">
-        <f>IF(Utilidad!E19&gt;1,Utilidad!E2&gt;100,Utilidad!E2)</f>
+        <f>IF(Utilidad!E19&gt;1,Utilidad!E2/100,Utilidad!E2)</f>
         <v>0.48852658240691099</v>
       </c>
       <c r="G5" s="164" t="s">
@@ -9336,11 +9336,11 @@
         <v>68993</v>
       </c>
       <c r="I5" s="171">
-        <f>IF(Utilidad!D19&gt;1,Utilidad!D2&gt;100,Utilidad!D2)</f>
+        <f>IF(Utilidad!D19&gt;1,Utilidad!D2/100,Utilidad!D2)</f>
         <v>0.53526569941878199</v>
       </c>
       <c r="J5" s="171">
-        <f>IF(Utilidad!F19&gt;1,Utilidad!F2&gt;100,Utilidad!F2)</f>
+        <f>IF(Utilidad!F19&gt;1,Utilidad!F2/100,Utilidad!F2)</f>
         <v>0.48852658240691099</v>
       </c>
       <c r="L5" s="172">
@@ -9377,11 +9377,11 @@
         <v>10719.6</v>
       </c>
       <c r="D6" s="171">
-        <f>IF(Utilidad!C20&gt;1,Utilidad!C3&gt;100,Utilidad!C3)</f>
+        <f>IF(Utilidad!C20&gt;1,Utilidad!C3/100,Utilidad!C3)</f>
         <v>0.55290710660845599</v>
       </c>
       <c r="E6" s="171">
-        <f>IF(Utilidad!E20&gt;1,Utilidad!E3&gt;100,Utilidad!E3)</f>
+        <f>IF(Utilidad!E20&gt;1,Utilidad!E3/100,Utilidad!E3)</f>
         <v>0.50318076980484305</v>
       </c>
       <c r="G6" s="164" t="s">
@@ -9392,11 +9392,11 @@
         <v>10719.6</v>
       </c>
       <c r="I6" s="171">
-        <f>IF(Utilidad!D20&gt;1,Utilidad!D3&gt;100,Utilidad!D3)</f>
+        <f>IF(Utilidad!D20&gt;1,Utilidad!D3/100,Utilidad!D3)</f>
         <v>0.55290710660845599</v>
       </c>
       <c r="J6" s="171">
-        <f>IF(Utilidad!F20&gt;1,Utilidad!F3&gt;100,Utilidad!F3)</f>
+        <f>IF(Utilidad!F20&gt;1,Utilidad!F3/100,Utilidad!F3)</f>
         <v>0.50318076980484305</v>
       </c>
       <c r="L6" s="172">
@@ -9433,11 +9433,11 @@
         <v>22667.152000000002</v>
       </c>
       <c r="D7" s="171">
-        <f>IF(Utilidad!C21&gt;1,Utilidad!C4&gt;100,Utilidad!C4)</f>
+        <f>IF(Utilidad!C21&gt;1,Utilidad!C4/100,Utilidad!C4)</f>
         <v>0.60588953488372099</v>
       </c>
       <c r="E7" s="171">
-        <f>IF(Utilidad!E21&gt;1,Utilidad!E4&gt;100,Utilidad!E4)</f>
+        <f>IF(Utilidad!E21&gt;1,Utilidad!E4/100,Utilidad!E4)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="G7" s="164" t="s">
@@ -9448,11 +9448,11 @@
         <v>22667.152000000002</v>
       </c>
       <c r="I7" s="171">
-        <f>IF(Utilidad!D21&gt;1,Utilidad!D4&gt;100,Utilidad!D4)</f>
+        <f>IF(Utilidad!D21&gt;1,Utilidad!D4/100,Utilidad!D4)</f>
         <v>0.60588953488372099</v>
       </c>
       <c r="J7" s="171">
-        <f>IF(Utilidad!F21&gt;1,Utilidad!F4&gt;100,Utilidad!F4)</f>
+        <f>IF(Utilidad!F21&gt;1,Utilidad!F4/100,Utilidad!F4)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="L7" s="172">
@@ -9489,11 +9489,11 @@
         <v>2867</v>
       </c>
       <c r="D8" s="171">
-        <f>IF(Utilidad!C22&gt;1,Utilidad!C5&gt;100,Utilidad!C5)</f>
+        <f>IF(Utilidad!C22&gt;1,Utilidad!C5/100,Utilidad!C5)</f>
         <v>0.60588953488372099</v>
       </c>
       <c r="E8" s="171">
-        <f>IF(Utilidad!E22&gt;1,Utilidad!E5&gt;100,Utilidad!E5)</f>
+        <f>IF(Utilidad!E22&gt;1,Utilidad!E5/100,Utilidad!E5)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="G8" s="164" t="s">
@@ -9504,11 +9504,11 @@
         <v>2867</v>
       </c>
       <c r="I8" s="171">
-        <f>IF(Utilidad!D22&gt;1,Utilidad!D5&gt;100,Utilidad!D5)</f>
+        <f>IF(Utilidad!D22&gt;1,Utilidad!D5/100,Utilidad!D5)</f>
         <v>0.60588953488372099</v>
       </c>
       <c r="J8" s="171">
-        <f>IF(Utilidad!F22&gt;1,Utilidad!F5&gt;100,Utilidad!F5)</f>
+        <f>IF(Utilidad!F22&gt;1,Utilidad!F5/100,Utilidad!F5)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="L8" s="172">
@@ -9545,11 +9545,11 @@
         <v>0</v>
       </c>
       <c r="D9" s="171">
-        <f>IF(Utilidad!C23&gt;1,Utilidad!C6&gt;100,Utilidad!C6)</f>
+        <f>IF(Utilidad!C23&gt;1,Utilidad!C6/100,Utilidad!C6)</f>
         <v>0</v>
       </c>
       <c r="E9" s="171">
-        <f>IF(Utilidad!E23&gt;1,Utilidad!E6&gt;100,Utilidad!E6)</f>
+        <f>IF(Utilidad!E23&gt;1,Utilidad!E6/100,Utilidad!E6)</f>
         <v>0</v>
       </c>
       <c r="G9" s="164" t="s">
@@ -9560,11 +9560,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="171">
-        <f>IF(Utilidad!D23&gt;1,Utilidad!D6&gt;100,Utilidad!D6)</f>
+        <f>IF(Utilidad!D23&gt;1,Utilidad!D6/100,Utilidad!D6)</f>
         <v>0</v>
       </c>
       <c r="J9" s="171">
-        <f>IF(Utilidad!F23&gt;1,Utilidad!F6&gt;100,Utilidad!F6)</f>
+        <f>IF(Utilidad!F23&gt;1,Utilidad!F6/100,Utilidad!F6)</f>
         <v>0</v>
       </c>
       <c r="L9" s="172">
@@ -9601,11 +9601,11 @@
         <v>20879.289999999997</v>
       </c>
       <c r="D10" s="171">
-        <f>IF(Utilidad!C24&gt;1,Utilidad!C7&gt;100,Utilidad!C7)</f>
+        <f>IF(Utilidad!C24&gt;1,Utilidad!C7/100,Utilidad!C7)</f>
         <v>0.58489999999999998</v>
       </c>
       <c r="E10" s="171">
-        <f>IF(Utilidad!E24&gt;1,Utilidad!E7&gt;100,Utilidad!E7)</f>
+        <f>IF(Utilidad!E24&gt;1,Utilidad!E7/100,Utilidad!E7)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="G10" s="164" t="s">
@@ -9616,11 +9616,11 @@
         <v>20879.289999999997</v>
       </c>
       <c r="I10" s="171">
-        <f>IF(Utilidad!D24&gt;1,Utilidad!D7&gt;100,Utilidad!D7)</f>
+        <f>IF(Utilidad!D24&gt;1,Utilidad!D7/100,Utilidad!D7)</f>
         <v>0.58489999999999998</v>
       </c>
       <c r="J10" s="171">
-        <f>IF(Utilidad!F24&gt;1,Utilidad!F7&gt;100,Utilidad!F7)</f>
+        <f>IF(Utilidad!F24&gt;1,Utilidad!F7/100,Utilidad!F7)</f>
         <v>0.59221159069767404</v>
       </c>
       <c r="L10" s="172">
@@ -9657,11 +9657,11 @@
         <v>18314.103999999999</v>
       </c>
       <c r="D11" s="171">
-        <f>IF(Utilidad!C25&gt;1,Utilidad!C8&gt;100,Utilidad!C8)</f>
+        <f>IF(Utilidad!C25&gt;1,Utilidad!C8/100,Utilidad!C8)</f>
         <v>0.602155555555556</v>
       </c>
       <c r="E11" s="171">
-        <f>IF(Utilidad!E25&gt;1,Utilidad!E8&gt;100,Utilidad!E8)</f>
+        <f>IF(Utilidad!E25&gt;1,Utilidad!E8/100,Utilidad!E8)</f>
         <v>0.58622512000000004</v>
       </c>
       <c r="G11" s="164" t="s">
@@ -9672,11 +9672,11 @@
         <v>18314.103999999999</v>
       </c>
       <c r="I11" s="171">
-        <f>IF(Utilidad!D25&gt;1,Utilidad!D8&gt;100,Utilidad!D8)</f>
+        <f>IF(Utilidad!D25&gt;1,Utilidad!D8/100,Utilidad!D8)</f>
         <v>0.602155555555556</v>
       </c>
       <c r="J11" s="171">
-        <f>IF(Utilidad!F25&gt;1,Utilidad!F8&gt;100,Utilidad!F8)</f>
+        <f>IF(Utilidad!F25&gt;1,Utilidad!F8/100,Utilidad!F8)</f>
         <v>0.58622512000000004</v>
       </c>
       <c r="L11" s="172">
@@ -9713,11 +9713,11 @@
         <v>212</v>
       </c>
       <c r="D12" s="171">
-        <f>IF(Utilidad!C26&gt;1,Utilidad!C9&gt;100,Utilidad!C9)</f>
+        <f>IF(Utilidad!C26&gt;1,Utilidad!C9/100,Utilidad!C9)</f>
         <v>0.60060000000000002</v>
       </c>
       <c r="E12" s="171">
-        <f>IF(Utilidad!E26&gt;1,Utilidad!E9&gt;100,Utilidad!E9)</f>
+        <f>IF(Utilidad!E26&gt;1,Utilidad!E9/100,Utilidad!E9)</f>
         <v>0.58622505731028685</v>
       </c>
       <c r="G12" s="164" t="s">
@@ -9728,11 +9728,11 @@
         <v>212</v>
       </c>
       <c r="I12" s="171">
-        <f>IF(Utilidad!D26&gt;1,Utilidad!D9&gt;100,Utilidad!D9)</f>
+        <f>IF(Utilidad!D26&gt;1,Utilidad!D9/100,Utilidad!D9)</f>
         <v>0.60060000000000002</v>
       </c>
       <c r="J12" s="171">
-        <f>IF(Utilidad!F26&gt;1,Utilidad!F9&gt;100,Utilidad!F9)</f>
+        <f>IF(Utilidad!F26&gt;1,Utilidad!F9/100,Utilidad!F9)</f>
         <v>0.58622505731028685</v>
       </c>
       <c r="L12" s="172">
@@ -9769,11 +9769,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="171">
-        <f>IF(Utilidad!C27&gt;1,Utilidad!C10&gt;100,Utilidad!C10)</f>
+        <f>IF(Utilidad!C27&gt;1,Utilidad!C10/100,Utilidad!C10)</f>
         <v>0</v>
       </c>
       <c r="E13" s="171">
-        <f>IF(Utilidad!E27&gt;1,Utilidad!E10&gt;100,Utilidad!E10)</f>
+        <f>IF(Utilidad!E27&gt;1,Utilidad!E10/100,Utilidad!E10)</f>
         <v>0</v>
       </c>
       <c r="G13" s="164" t="s">
@@ -9784,11 +9784,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="171">
-        <f>IF(Utilidad!D27&gt;1,Utilidad!D10&gt;100,Utilidad!D10)</f>
+        <f>IF(Utilidad!D27&gt;1,Utilidad!D10/100,Utilidad!D10)</f>
         <v>0</v>
       </c>
       <c r="J13" s="171">
-        <f>IF(Utilidad!F27&gt;1,Utilidad!F10&gt;100,Utilidad!F10)</f>
+        <f>IF(Utilidad!F27&gt;1,Utilidad!F10/100,Utilidad!F10)</f>
         <v>0</v>
       </c>
       <c r="L13" s="172">
@@ -9825,11 +9825,11 @@
         <v>16230.67</v>
       </c>
       <c r="D14" s="171">
-        <f>IF(Utilidad!C28&gt;1,Utilidad!C11&gt;100,Utilidad!C11)</f>
+        <f>IF(Utilidad!C28&gt;1,Utilidad!C11/100,Utilidad!C11)</f>
         <v>0.60060000000000002</v>
       </c>
       <c r="E14" s="171">
-        <f>IF(Utilidad!E28&gt;1,Utilidad!E11&gt;100,Utilidad!E11)</f>
+        <f>IF(Utilidad!E28&gt;1,Utilidad!E11/100,Utilidad!E11)</f>
         <v>0.58622512000000004</v>
       </c>
       <c r="G14" s="164" t="s">
@@ -9840,11 +9840,11 @@
         <v>16230.67</v>
       </c>
       <c r="I14" s="171">
-        <f>IF(Utilidad!D28&gt;1,Utilidad!D11&gt;100,Utilidad!D11)</f>
+        <f>IF(Utilidad!D28&gt;1,Utilidad!D11/100,Utilidad!D11)</f>
         <v>0.60060000000000002</v>
       </c>
       <c r="J14" s="171">
-        <f>IF(Utilidad!F28&gt;1,Utilidad!F11&gt;100,Utilidad!F11)</f>
+        <f>IF(Utilidad!F28&gt;1,Utilidad!F11/100,Utilidad!F11)</f>
         <v>0.58622512000000004</v>
       </c>
       <c r="L14" s="172">
@@ -9881,11 +9881,11 @@
         <v>13136</v>
       </c>
       <c r="D15" s="171">
-        <f>IF(Utilidad!C29&gt;1,Utilidad!C12&gt;100,Utilidad!C12)</f>
+        <f>IF(Utilidad!C29&gt;1,Utilidad!C12/100,Utilidad!C12)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="E15" s="171">
-        <f>IF(Utilidad!E29&gt;1,Utilidad!E12&gt;100,Utilidad!E12)</f>
+        <f>IF(Utilidad!E29&gt;1,Utilidad!E12/100,Utilidad!E12)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="G15" s="164" t="s">
@@ -9896,11 +9896,11 @@
         <v>13136</v>
       </c>
       <c r="I15" s="171">
-        <f>IF(Utilidad!D29&gt;1,Utilidad!D12&gt;100,Utilidad!D12)</f>
+        <f>IF(Utilidad!D29&gt;1,Utilidad!D12/100,Utilidad!D12)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="J15" s="171">
-        <f>IF(Utilidad!F29&gt;1,Utilidad!F12&gt;100,Utilidad!F12)</f>
+        <f>IF(Utilidad!F29&gt;1,Utilidad!F12/100,Utilidad!F12)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="L15" s="172">
@@ -9937,11 +9937,11 @@
         <v>478</v>
       </c>
       <c r="D16" s="171">
-        <f>IF(Utilidad!C30&gt;1,Utilidad!C13&gt;100,Utilidad!C13)</f>
+        <f>IF(Utilidad!C30&gt;1,Utilidad!C13/100,Utilidad!C13)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="E16" s="171">
-        <f>IF(Utilidad!E30&gt;1,Utilidad!E13&gt;100,Utilidad!E13)</f>
+        <f>IF(Utilidad!E30&gt;1,Utilidad!E13/100,Utilidad!E13)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="G16" s="164" t="s">
@@ -9952,11 +9952,11 @@
         <v>478</v>
       </c>
       <c r="I16" s="171">
-        <f>IF(Utilidad!D30&gt;1,Utilidad!D13&gt;100,Utilidad!D13)</f>
+        <f>IF(Utilidad!D30&gt;1,Utilidad!D13/100,Utilidad!D13)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="J16" s="171">
-        <f>IF(Utilidad!F30&gt;1,Utilidad!F13&gt;100,Utilidad!F13)</f>
+        <f>IF(Utilidad!F30&gt;1,Utilidad!F13/100,Utilidad!F13)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="L16" s="172">
@@ -9993,11 +9993,11 @@
         <v>4696</v>
       </c>
       <c r="D17" s="171">
-        <f>IF(Utilidad!C31&gt;1,Utilidad!C14&gt;100,Utilidad!C14)</f>
+        <f>IF(Utilidad!C31&gt;1,Utilidad!C14/100,Utilidad!C14)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="E17" s="171">
-        <f>IF(Utilidad!E31&gt;1,Utilidad!E14&gt;100,Utilidad!E14)</f>
+        <f>IF(Utilidad!E31&gt;1,Utilidad!E14/100,Utilidad!E14)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="G17" s="164" t="s">
@@ -10008,11 +10008,11 @@
         <v>4696</v>
       </c>
       <c r="I17" s="171">
-        <f>IF(Utilidad!D31&gt;1,Utilidad!D14&gt;100,Utilidad!D14)</f>
+        <f>IF(Utilidad!D31&gt;1,Utilidad!D14/100,Utilidad!D14)</f>
         <v>0.35781395348837203</v>
       </c>
       <c r="J17" s="171">
-        <f>IF(Utilidad!F31&gt;1,Utilidad!F14&gt;100,Utilidad!F14)</f>
+        <f>IF(Utilidad!F31&gt;1,Utilidad!F14/100,Utilidad!F14)</f>
         <v>0.321851323255814</v>
       </c>
       <c r="L17" s="172">
@@ -10049,11 +10049,11 @@
         <v>25816</v>
       </c>
       <c r="D18" s="171">
-        <f>IF(Utilidad!C32&gt;1,Utilidad!C15&gt;100,Utilidad!C15)</f>
+        <f>IF(Utilidad!C32&gt;1,Utilidad!C15/100,Utilidad!C15)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="E18" s="171">
-        <f>IF(Utilidad!E32&gt;1,Utilidad!E15&gt;100,Utilidad!E15)</f>
+        <f>IF(Utilidad!E32&gt;1,Utilidad!E15/100,Utilidad!E15)</f>
         <v>0.37541457571486819</v>
       </c>
       <c r="G18" s="164" t="s">
@@ -10064,11 +10064,11 @@
         <v>25816</v>
       </c>
       <c r="I18" s="171">
-        <f>IF(Utilidad!D32&gt;1,Utilidad!D15&gt;100,Utilidad!D15)</f>
+        <f>IF(Utilidad!D32&gt;1,Utilidad!D15/100,Utilidad!D15)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="J18" s="171">
-        <f>IF(Utilidad!F32&gt;1,Utilidad!F15&gt;100,Utilidad!F15)</f>
+        <f>IF(Utilidad!F32&gt;1,Utilidad!F15/100,Utilidad!F15)</f>
         <v>0.37541457571486819</v>
       </c>
       <c r="L18" s="172">
@@ -10105,11 +10105,11 @@
         <v>528</v>
       </c>
       <c r="D19" s="171">
-        <f>IF(Utilidad!C33&gt;1,Utilidad!C16&gt;100,Utilidad!C16)</f>
+        <f>IF(Utilidad!C33&gt;1,Utilidad!C16/100,Utilidad!C16)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="E19" s="171">
-        <f>IF(Utilidad!E33&gt;1,Utilidad!E16&gt;100,Utilidad!E16)</f>
+        <f>IF(Utilidad!E33&gt;1,Utilidad!E16/100,Utilidad!E16)</f>
         <v>0.376</v>
       </c>
       <c r="G19" s="164" t="s">
@@ -10120,11 +10120,11 @@
         <v>528</v>
       </c>
       <c r="I19" s="171">
-        <f>IF(Utilidad!D33&gt;1,Utilidad!D16&gt;100,Utilidad!D16)</f>
+        <f>IF(Utilidad!D33&gt;1,Utilidad!D16/100,Utilidad!D16)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="J19" s="171">
-        <f>IF(Utilidad!F33&gt;1,Utilidad!F16&gt;100,Utilidad!F16)</f>
+        <f>IF(Utilidad!F33&gt;1,Utilidad!F16/100,Utilidad!F16)</f>
         <v>0.376</v>
       </c>
       <c r="L19" s="172">
@@ -10161,11 +10161,11 @@
         <v>26876.47</v>
       </c>
       <c r="D20" s="171">
-        <f>IF(Utilidad!C34&gt;1,Utilidad!C17&gt;100,Utilidad!C17)</f>
+        <f>IF(Utilidad!C34&gt;1,Utilidad!C17/100,Utilidad!C17)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="E20" s="171">
-        <f>IF(Utilidad!E34&gt;1,Utilidad!E17&gt;100,Utilidad!E17)</f>
+        <f>IF(Utilidad!E34&gt;1,Utilidad!E17/100,Utilidad!E17)</f>
         <v>0.376</v>
       </c>
       <c r="G20" s="164" t="s">
@@ -10176,11 +10176,11 @@
         <v>26876.47</v>
       </c>
       <c r="I20" s="171">
-        <f>IF(Utilidad!D34&gt;1,Utilidad!D17&gt;100,Utilidad!D17)</f>
+        <f>IF(Utilidad!D34&gt;1,Utilidad!D17/100,Utilidad!D17)</f>
         <v>0.41160000000000002</v>
       </c>
       <c r="J20" s="171">
-        <f>IF(Utilidad!F34&gt;1,Utilidad!F17&gt;100,Utilidad!F17)</f>
+        <f>IF(Utilidad!F34&gt;1,Utilidad!F17/100,Utilidad!F17)</f>
         <v>0.376</v>
       </c>
       <c r="L20" s="172">
@@ -10217,11 +10217,11 @@
         <v>26924</v>
       </c>
       <c r="D21" s="171">
-        <f>IF(Utilidad!C35&gt;1,Utilidad!C18&gt;100,Utilidad!C18)</f>
+        <f>IF(Utilidad!C35&gt;1,Utilidad!C18/100,Utilidad!C18)</f>
         <v>0.441342081414351</v>
       </c>
       <c r="E21" s="171">
-        <f>IF(Utilidad!E35&gt;1,Utilidad!E18&gt;100,Utilidad!E18)</f>
+        <f>IF(Utilidad!E35&gt;1,Utilidad!E18/100,Utilidad!E18)</f>
         <v>0.37928039488169252</v>
       </c>
       <c r="G21" s="163" t="s">
@@ -10232,11 +10232,11 @@
         <v>26924</v>
       </c>
       <c r="I21" s="171">
-        <f>IF(Utilidad!D35&gt;1,Utilidad!D18&gt;100,Utilidad!D18)</f>
+        <f>IF(Utilidad!D35&gt;1,Utilidad!D18/100,Utilidad!D18)</f>
         <v>0.441342081414351</v>
       </c>
       <c r="J21" s="171">
-        <f>IF(Utilidad!F35&gt;1,Utilidad!F18&gt;100,Utilidad!F18)</f>
+        <f>IF(Utilidad!F35&gt;1,Utilidad!F18/100,Utilidad!F18)</f>
         <v>0.37928039488169252</v>
       </c>
       <c r="L21" s="172">
@@ -10273,11 +10273,11 @@
         <v>9033</v>
       </c>
       <c r="D22" s="171">
-        <f>IF(Utilidad!C36&gt;1,Utilidad!C19&gt;100,Utilidad!C19)</f>
+        <f>IF(Utilidad!C36&gt;1,Utilidad!C19/100,Utilidad!C19)</f>
         <v>0.42468630576774002</v>
       </c>
       <c r="E22" s="171">
-        <f>IF(Utilidad!E36&gt;1,Utilidad!E19&gt;100,Utilidad!E19)</f>
+        <f>IF(Utilidad!E36&gt;1,Utilidad!E19/100,Utilidad!E19)</f>
         <v>0.36724357273085934</v>
       </c>
       <c r="G22" s="163" t="s">
@@ -10288,11 +10288,11 @@
         <v>9033</v>
       </c>
       <c r="I22" s="171">
-        <f>IF(Utilidad!D36&gt;1,Utilidad!D19&gt;100,Utilidad!D19)</f>
+        <f>IF(Utilidad!D36&gt;1,Utilidad!D19/100,Utilidad!D19)</f>
         <v>0.42468630576774002</v>
       </c>
       <c r="J22" s="171">
-        <f>IF(Utilidad!F36&gt;1,Utilidad!F19&gt;100,Utilidad!F19)</f>
+        <f>IF(Utilidad!F36&gt;1,Utilidad!F19/100,Utilidad!F19)</f>
         <v>0.36724357273085934</v>
       </c>
       <c r="L22" s="172">
@@ -10329,11 +10329,11 @@
         <v>19699.46</v>
       </c>
       <c r="D23" s="171">
-        <f>IF(Utilidad!C37&gt;1,Utilidad!C20&gt;100,Utilidad!C20)</f>
+        <f>IF(Utilidad!C37&gt;1,Utilidad!C20/100,Utilidad!C20)</f>
         <v>0.46239999999999992</v>
       </c>
       <c r="E23" s="171">
-        <f>IF(Utilidad!E37&gt;1,Utilidad!E20&gt;100,Utilidad!E20)</f>
+        <f>IF(Utilidad!E37&gt;1,Utilidad!E20/100,Utilidad!E20)</f>
         <v>0.45593008209958086</v>
       </c>
       <c r="G23" s="163" t="s">
@@ -10344,11 +10344,11 @@
         <v>19699.46</v>
       </c>
       <c r="I23" s="171">
-        <f>IF(Utilidad!D37&gt;1,Utilidad!D20&gt;100,Utilidad!D20)</f>
+        <f>IF(Utilidad!D37&gt;1,Utilidad!D20/100,Utilidad!D20)</f>
         <v>0.46239999999999992</v>
       </c>
       <c r="J23" s="171">
-        <f>IF(Utilidad!F37&gt;1,Utilidad!F20&gt;100,Utilidad!F20)</f>
+        <f>IF(Utilidad!F37&gt;1,Utilidad!F20/100,Utilidad!F20)</f>
         <v>0.45593008209958086</v>
       </c>
       <c r="L23" s="172">
@@ -10385,11 +10385,11 @@
         <v>80</v>
       </c>
       <c r="D24" s="171">
-        <f>IF(Utilidad!C38&gt;1,Utilidad!C21&gt;100,Utilidad!C21)</f>
+        <f>IF(Utilidad!C38&gt;1,Utilidad!C21/100,Utilidad!C21)</f>
         <v>0.46239999999999998</v>
       </c>
       <c r="E24" s="171">
-        <f>IF(Utilidad!E38&gt;1,Utilidad!E21&gt;100,Utilidad!E21)</f>
+        <f>IF(Utilidad!E38&gt;1,Utilidad!E21/100,Utilidad!E21)</f>
         <v>0.39041999999999999</v>
       </c>
       <c r="G24" s="163" t="s">
@@ -10400,11 +10400,11 @@
         <v>80</v>
       </c>
       <c r="I24" s="171">
-        <f>IF(Utilidad!D38&gt;1,Utilidad!D21&gt;100,Utilidad!D21)</f>
+        <f>IF(Utilidad!D38&gt;1,Utilidad!D21/100,Utilidad!D21)</f>
         <v>0.46239999999999998</v>
       </c>
       <c r="J24" s="171">
-        <f>IF(Utilidad!F38&gt;1,Utilidad!F21&gt;100,Utilidad!F21)</f>
+        <f>IF(Utilidad!F38&gt;1,Utilidad!F21/100,Utilidad!F21)</f>
         <v>0.39041999999999999</v>
       </c>
       <c r="L24" s="172">
@@ -10441,11 +10441,11 @@
         <v>19779.46</v>
       </c>
       <c r="D25" s="171">
-        <f>IF(Utilidad!C39&gt;1,Utilidad!C22&gt;100,Utilidad!C22)</f>
+        <f>IF(Utilidad!C39&gt;1,Utilidad!C22/100,Utilidad!C22)</f>
         <v>0.46239999999999998</v>
       </c>
       <c r="E25" s="171">
-        <f>IF(Utilidad!E39&gt;1,Utilidad!E22&gt;100,Utilidad!E22)</f>
+        <f>IF(Utilidad!E39&gt;1,Utilidad!E22/100,Utilidad!E22)</f>
         <v>0.45317539181294575</v>
       </c>
       <c r="G25" s="163" t="s">
@@ -10456,11 +10456,11 @@
         <v>19779.46</v>
       </c>
       <c r="I25" s="171">
-        <f>IF(Utilidad!D39&gt;1,Utilidad!D22&gt;100,Utilidad!D22)</f>
+        <f>IF(Utilidad!D39&gt;1,Utilidad!D22/100,Utilidad!D22)</f>
         <v>0.46239999999999998</v>
       </c>
       <c r="J25" s="171">
-        <f>IF(Utilidad!F39&gt;1,Utilidad!F22&gt;100,Utilidad!F22)</f>
+        <f>IF(Utilidad!F39&gt;1,Utilidad!F22/100,Utilidad!F22)</f>
         <v>0.45317539181294575</v>
       </c>
       <c r="L25" s="172">
@@ -10497,11 +10497,11 @@
         <v>8922.43</v>
       </c>
       <c r="D26" s="171">
-        <f>IF(Utilidad!C40&gt;1,Utilidad!C23&gt;100,Utilidad!C23)</f>
+        <f>IF(Utilidad!C40&gt;1,Utilidad!C23/100,Utilidad!C23)</f>
         <v>0.47120000000000006</v>
       </c>
       <c r="E26" s="171">
-        <f>IF(Utilidad!E40&gt;1,Utilidad!E23&gt;100,Utilidad!E23)</f>
+        <f>IF(Utilidad!E40&gt;1,Utilidad!E23/100,Utilidad!E23)</f>
         <v>0.44301316531417145</v>
       </c>
       <c r="G26" s="163" t="s">
@@ -10512,11 +10512,11 @@
         <v>8922.43</v>
       </c>
       <c r="I26" s="171">
-        <f>IF(Utilidad!D40&gt;1,Utilidad!D23&gt;100,Utilidad!D23)</f>
+        <f>IF(Utilidad!D40&gt;1,Utilidad!D23/100,Utilidad!D23)</f>
         <v>0.47120000000000006</v>
       </c>
       <c r="J26" s="171">
-        <f>IF(Utilidad!F40&gt;1,Utilidad!F23&gt;100,Utilidad!F23)</f>
+        <f>IF(Utilidad!F40&gt;1,Utilidad!F23/100,Utilidad!F23)</f>
         <v>0.44301316531417145</v>
       </c>
       <c r="L26" s="172">
@@ -10553,11 +10553,11 @@
         <v>1067</v>
       </c>
       <c r="D27" s="171">
-        <f>IF(Utilidad!C41&gt;1,Utilidad!C24&gt;100,Utilidad!C24)</f>
+        <f>IF(Utilidad!C41&gt;1,Utilidad!C24/100,Utilidad!C24)</f>
         <v>0.47120000000000001</v>
       </c>
       <c r="E27" s="171">
-        <f>IF(Utilidad!E41&gt;1,Utilidad!E24&gt;100,Utilidad!E24)</f>
+        <f>IF(Utilidad!E41&gt;1,Utilidad!E24/100,Utilidad!E24)</f>
         <v>0.47443000000000002</v>
       </c>
       <c r="G27" s="163" t="s">
@@ -10568,11 +10568,11 @@
         <v>1067</v>
       </c>
       <c r="I27" s="171">
-        <f>IF(Utilidad!D41&gt;1,Utilidad!D24&gt;100,Utilidad!D24)</f>
+        <f>IF(Utilidad!D41&gt;1,Utilidad!D24/100,Utilidad!D24)</f>
         <v>0.47120000000000001</v>
       </c>
       <c r="J27" s="171">
-        <f>IF(Utilidad!F41&gt;1,Utilidad!F24&gt;100,Utilidad!F24)</f>
+        <f>IF(Utilidad!F41&gt;1,Utilidad!F24/100,Utilidad!F24)</f>
         <v>0.47443000000000002</v>
       </c>
       <c r="L27" s="172">
@@ -10609,11 +10609,11 @@
         <v>7855.43</v>
       </c>
       <c r="D28" s="171">
-        <f>IF(Utilidad!C42&gt;1,Utilidad!C25&gt;100,Utilidad!C25)</f>
+        <f>IF(Utilidad!C42&gt;1,Utilidad!C25/100,Utilidad!C25)</f>
         <v>0.47120000000000001</v>
       </c>
       <c r="E28" s="171">
-        <f>IF(Utilidad!E42&gt;1,Utilidad!E25&gt;100,Utilidad!E25)</f>
+        <f>IF(Utilidad!E42&gt;1,Utilidad!E25/100,Utilidad!E25)</f>
         <v>0.4388296784132556</v>
       </c>
       <c r="G28" s="163" t="s">
@@ -10624,11 +10624,11 @@
         <v>7855.43</v>
       </c>
       <c r="I28" s="171">
-        <f>IF(Utilidad!D42&gt;1,Utilidad!D25&gt;100,Utilidad!D25)</f>
+        <f>IF(Utilidad!D42&gt;1,Utilidad!D25/100,Utilidad!D25)</f>
         <v>0.47120000000000001</v>
       </c>
       <c r="J28" s="171">
-        <f>IF(Utilidad!F42&gt;1,Utilidad!F25&gt;100,Utilidad!F25)</f>
+        <f>IF(Utilidad!F42&gt;1,Utilidad!F25/100,Utilidad!F25)</f>
         <v>0.4388296784132556</v>
       </c>
       <c r="L28" s="172">
@@ -10665,11 +10665,11 @@
         <v>7335.1100000000006</v>
       </c>
       <c r="D29" s="171">
-        <f>IF(Utilidad!C43&gt;1,Utilidad!C26&gt;100,Utilidad!C26)</f>
+        <f>IF(Utilidad!C43&gt;1,Utilidad!C26/100,Utilidad!C26)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="E29" s="171">
-        <f>IF(Utilidad!E43&gt;1,Utilidad!E26&gt;100,Utilidad!E26)</f>
+        <f>IF(Utilidad!E43&gt;1,Utilidad!E26/100,Utilidad!E26)</f>
         <v>0.15411964173912998</v>
       </c>
       <c r="G29" s="163" t="s">
@@ -10680,11 +10680,11 @@
         <v>7335.1100000000006</v>
       </c>
       <c r="I29" s="171">
-        <f>IF(Utilidad!D43&gt;1,Utilidad!D26&gt;100,Utilidad!D26)</f>
+        <f>IF(Utilidad!D43&gt;1,Utilidad!D26/100,Utilidad!D26)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="J29" s="171">
-        <f>IF(Utilidad!F43&gt;1,Utilidad!F26&gt;100,Utilidad!F26)</f>
+        <f>IF(Utilidad!F43&gt;1,Utilidad!F26/100,Utilidad!F26)</f>
         <v>0.15411964173912998</v>
       </c>
       <c r="L29" s="172">
@@ -10721,11 +10721,11 @@
         <v>176</v>
       </c>
       <c r="D30" s="171">
-        <f>IF(Utilidad!C44&gt;1,Utilidad!C27&gt;100,Utilidad!C27)</f>
+        <f>IF(Utilidad!C44&gt;1,Utilidad!C27/100,Utilidad!C27)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="E30" s="171">
-        <f>IF(Utilidad!E44&gt;1,Utilidad!E27&gt;100,Utilidad!E27)</f>
+        <f>IF(Utilidad!E44&gt;1,Utilidad!E27/100,Utilidad!E27)</f>
         <v>0.14010876521739099</v>
       </c>
       <c r="G30" s="163" t="s">
@@ -10736,11 +10736,11 @@
         <v>176</v>
       </c>
       <c r="I30" s="171">
-        <f>IF(Utilidad!D44&gt;1,Utilidad!D27&gt;100,Utilidad!D27)</f>
+        <f>IF(Utilidad!D44&gt;1,Utilidad!D27/100,Utilidad!D27)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="J30" s="171">
-        <f>IF(Utilidad!F44&gt;1,Utilidad!F27&gt;100,Utilidad!F27)</f>
+        <f>IF(Utilidad!F44&gt;1,Utilidad!F27/100,Utilidad!F27)</f>
         <v>0.14010876521739099</v>
       </c>
       <c r="L30" s="172">
@@ -10777,11 +10777,11 @@
         <v>11126</v>
       </c>
       <c r="D31" s="171">
-        <f>IF(Utilidad!C45&gt;1,Utilidad!C28&gt;100,Utilidad!C28)</f>
+        <f>IF(Utilidad!C45&gt;1,Utilidad!C28/100,Utilidad!C28)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="E31" s="171">
-        <f>IF(Utilidad!E45&gt;1,Utilidad!E28&gt;100,Utilidad!E28)</f>
+        <f>IF(Utilidad!E45&gt;1,Utilidad!E28/100,Utilidad!E28)</f>
         <v>0.15411964173913009</v>
       </c>
       <c r="G31" s="163" t="s">
@@ -10792,11 +10792,11 @@
         <v>11126</v>
       </c>
       <c r="I31" s="171">
-        <f>IF(Utilidad!D45&gt;1,Utilidad!D28&gt;100,Utilidad!D28)</f>
+        <f>IF(Utilidad!D45&gt;1,Utilidad!D28/100,Utilidad!D28)</f>
         <v>0.196191304347826</v>
       </c>
       <c r="J31" s="171">
-        <f>IF(Utilidad!F45&gt;1,Utilidad!F28&gt;100,Utilidad!F28)</f>
+        <f>IF(Utilidad!F45&gt;1,Utilidad!F28/100,Utilidad!F28)</f>
         <v>0.15411964173913009</v>
       </c>
       <c r="L31" s="172">
@@ -22494,7 +22494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A117F657-FF7E-FC4A-88FD-3E0BE2D2E260}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
